--- a/src/main/resources/ExponentsOfTen.xlsx
+++ b/src/main/resources/ExponentsOfTen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3781B0B3-8ABB-48CC-A6D6-CC8B11E4FDA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5448826-E29B-490F-8DDA-45AAE1AAB184}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>миллион</t>
   </si>
@@ -85,10 +85,328 @@
     <t>name</t>
   </si>
   <si>
-    <t>short cale</t>
-  </si>
-  <si>
-    <t>long scale</t>
+    <t>ундециллион</t>
+  </si>
+  <si>
+    <t>ундециллиард</t>
+  </si>
+  <si>
+    <t>додециллион</t>
+  </si>
+  <si>
+    <t>додециллиард</t>
+  </si>
+  <si>
+    <t>тредециллион</t>
+  </si>
+  <si>
+    <t>тредециллиард</t>
+  </si>
+  <si>
+    <t>кваттуордециллион</t>
+  </si>
+  <si>
+    <t>кваттуордециллиард</t>
+  </si>
+  <si>
+    <t>квиндециллион</t>
+  </si>
+  <si>
+    <t>квиндециллиард</t>
+  </si>
+  <si>
+    <t>седециллион</t>
+  </si>
+  <si>
+    <t>седециллиард</t>
+  </si>
+  <si>
+    <t>септемдециллион</t>
+  </si>
+  <si>
+    <t>септемдециллиард</t>
+  </si>
+  <si>
+    <t>октодециллион</t>
+  </si>
+  <si>
+    <t>октодециллиард</t>
+  </si>
+  <si>
+    <t>новемдециллион</t>
+  </si>
+  <si>
+    <t>новемдециллиард</t>
+  </si>
+  <si>
+    <t>вигинтиллион</t>
+  </si>
+  <si>
+    <t>вигинтиллиард</t>
+  </si>
+  <si>
+    <t>анвигинтиллион</t>
+  </si>
+  <si>
+    <t>анвигинтиллиард</t>
+  </si>
+  <si>
+    <t>дуовигинтиллион</t>
+  </si>
+  <si>
+    <t>дуовигинтиллиард</t>
+  </si>
+  <si>
+    <t>тревигинтиллион</t>
+  </si>
+  <si>
+    <t>тревигинтиллиард</t>
+  </si>
+  <si>
+    <t>кватторвигинтиллион</t>
+  </si>
+  <si>
+    <t>кватторвигинтиллиард</t>
+  </si>
+  <si>
+    <t>квинвигинтиллион</t>
+  </si>
+  <si>
+    <t>квинвигинтиллиард</t>
+  </si>
+  <si>
+    <t>сексвигинтиллион</t>
+  </si>
+  <si>
+    <t>сексвигинтиллиард</t>
+  </si>
+  <si>
+    <t>септемвигинтиллион</t>
+  </si>
+  <si>
+    <t>септемвигинтиллиард</t>
+  </si>
+  <si>
+    <t>октовигинтиллион</t>
+  </si>
+  <si>
+    <t>октовигинтиллиард</t>
+  </si>
+  <si>
+    <t>новемвигинтиллион</t>
+  </si>
+  <si>
+    <t>новемвигинтиллиард</t>
+  </si>
+  <si>
+    <t>тригинтиллион</t>
+  </si>
+  <si>
+    <t>тригинтиллиард</t>
+  </si>
+  <si>
+    <t>антригинтиллион</t>
+  </si>
+  <si>
+    <t>антригинтиллиард</t>
+  </si>
+  <si>
+    <t>дуотригинтиллион</t>
+  </si>
+  <si>
+    <t>дуотригинтиллиард</t>
+  </si>
+  <si>
+    <t>квадрагинтиллион</t>
+  </si>
+  <si>
+    <t>квадрагинтиллиард</t>
+  </si>
+  <si>
+    <t>квинквагинтиллион</t>
+  </si>
+  <si>
+    <t>квинквагинтиллиард</t>
+  </si>
+  <si>
+    <t>сексагинтиллион</t>
+  </si>
+  <si>
+    <t>сексагинтиллиард</t>
+  </si>
+  <si>
+    <t>септуагинтиллион</t>
+  </si>
+  <si>
+    <t>септуагинтиллиард</t>
+  </si>
+  <si>
+    <t>октогинтиллион</t>
+  </si>
+  <si>
+    <t>октогинтиллиард</t>
+  </si>
+  <si>
+    <t>нонагинтиллион</t>
+  </si>
+  <si>
+    <t>нонагинтиллиард</t>
+  </si>
+  <si>
+    <t>центиллион</t>
+  </si>
+  <si>
+    <t>центиллиард</t>
+  </si>
+  <si>
+    <t>анцентиллион</t>
+  </si>
+  <si>
+    <t>анцентиллиард</t>
+  </si>
+  <si>
+    <t>дуоцентиллион</t>
+  </si>
+  <si>
+    <t>дуоцентиллиард</t>
+  </si>
+  <si>
+    <t>трецентиллион</t>
+  </si>
+  <si>
+    <t>трецентиллиард</t>
+  </si>
+  <si>
+    <t>кватторцентиллион</t>
+  </si>
+  <si>
+    <t>кватторцентиллиард</t>
+  </si>
+  <si>
+    <t>децицентиллион</t>
+  </si>
+  <si>
+    <t>децицентиллиард</t>
+  </si>
+  <si>
+    <t>ундецицентиллион</t>
+  </si>
+  <si>
+    <t>ундецицентиллиард</t>
+  </si>
+  <si>
+    <t>вигинтицентиллион</t>
+  </si>
+  <si>
+    <t>вигинтицентиллиард</t>
+  </si>
+  <si>
+    <t>третригинтацентиллион</t>
+  </si>
+  <si>
+    <t>третригинтацентиллиард</t>
+  </si>
+  <si>
+    <t>дуцентиллион</t>
+  </si>
+  <si>
+    <t>дуцентиллиард</t>
+  </si>
+  <si>
+    <t>трицентиллион</t>
+  </si>
+  <si>
+    <t>трицентиллиард</t>
+  </si>
+  <si>
+    <t>квадрингентиллион</t>
+  </si>
+  <si>
+    <t>квадрингентиллиард</t>
+  </si>
+  <si>
+    <t>квингентиллион</t>
+  </si>
+  <si>
+    <t>квингентиллиард</t>
+  </si>
+  <si>
+    <t>сесцентиллион</t>
+  </si>
+  <si>
+    <t>сесцентиллиард</t>
+  </si>
+  <si>
+    <t>септингентиллион</t>
+  </si>
+  <si>
+    <t>септингентиллиард</t>
+  </si>
+  <si>
+    <t>окстингентиллион</t>
+  </si>
+  <si>
+    <t>окстингентиллиард</t>
+  </si>
+  <si>
+    <t>нонгентиллион</t>
+  </si>
+  <si>
+    <t>нонгентиллиард</t>
+  </si>
+  <si>
+    <t>дуомилиаллион</t>
+  </si>
+  <si>
+    <t>дуомилиаллиард</t>
+  </si>
+  <si>
+    <t>тремиллиаллион</t>
+  </si>
+  <si>
+    <t>тремиллиаллиард</t>
+  </si>
+  <si>
+    <t>квинквемилиаллион</t>
+  </si>
+  <si>
+    <t>квинквемилиаллиард</t>
+  </si>
+  <si>
+    <t>дуцентдуомилианонгентновемдециллион</t>
+  </si>
+  <si>
+    <t>дуцентдуомилианонгентновемдециллиард</t>
+  </si>
+  <si>
+    <t>милиамилиаиллион</t>
+  </si>
+  <si>
+    <t>милиамилиаиллиард</t>
+  </si>
+  <si>
+    <t>дуомилиамилиаиллион</t>
+  </si>
+  <si>
+    <t>дуомилиамилиаиллиард</t>
+  </si>
+  <si>
+    <t>миллиллион</t>
+  </si>
+  <si>
+    <t>миллиллиард</t>
+  </si>
+  <si>
+    <t>асанкхейя</t>
+  </si>
+  <si>
+    <t>гугол</t>
+  </si>
+  <si>
+    <t>long scale exponent of ten</t>
+  </si>
+  <si>
+    <t>short scale exponent of ten</t>
   </si>
 </sst>
 </file>
@@ -406,17 +724,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -424,10 +742,10 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -618,6 +936,1016 @@
       </c>
       <c r="C21">
         <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>57</v>
+      </c>
+      <c r="C36">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>63</v>
+      </c>
+      <c r="C40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>66</v>
+      </c>
+      <c r="C42">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>72</v>
+      </c>
+      <c r="C46">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>78</v>
+      </c>
+      <c r="C50">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>81</v>
+      </c>
+      <c r="C52">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>84</v>
+      </c>
+      <c r="C54">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>87</v>
+      </c>
+      <c r="C56">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>90</v>
+      </c>
+      <c r="C58">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>93</v>
+      </c>
+      <c r="C59">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>96</v>
+      </c>
+      <c r="C61">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>99</v>
+      </c>
+      <c r="C63">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>123</v>
+      </c>
+      <c r="C67">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69">
+        <v>140</v>
+      </c>
+      <c r="C69">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>153</v>
+      </c>
+      <c r="C70">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>138</v>
+      </c>
+      <c r="C72">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>213</v>
+      </c>
+      <c r="C74">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>243</v>
+      </c>
+      <c r="C76">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>273</v>
+      </c>
+      <c r="C78">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>303</v>
+      </c>
+      <c r="C80">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>306</v>
+      </c>
+      <c r="C82">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>309</v>
+      </c>
+      <c r="C84">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>312</v>
+      </c>
+      <c r="C86">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>315</v>
+      </c>
+      <c r="C88">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>333</v>
+      </c>
+      <c r="C90">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>336</v>
+      </c>
+      <c r="C92">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>363</v>
+      </c>
+      <c r="C94">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>402</v>
+      </c>
+      <c r="C96">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>603</v>
+      </c>
+      <c r="C98">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100">
+        <v>903</v>
+      </c>
+      <c r="C100">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>1203</v>
+      </c>
+      <c r="C102">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <v>1503</v>
+      </c>
+      <c r="C104">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>1803</v>
+      </c>
+      <c r="C106">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <v>2103</v>
+      </c>
+      <c r="C108">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>2403</v>
+      </c>
+      <c r="C110">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>2703</v>
+      </c>
+      <c r="C112">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114">
+        <v>3003</v>
+      </c>
+      <c r="C114">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>111</v>
+      </c>
+      <c r="B116">
+        <v>6003</v>
+      </c>
+      <c r="C116">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117">
+        <v>12003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>113</v>
+      </c>
+      <c r="B118">
+        <v>9003</v>
+      </c>
+      <c r="C118">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119">
+        <v>18003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120">
+        <v>15003</v>
+      </c>
+      <c r="C120">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>116</v>
+      </c>
+      <c r="C121">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122">
+        <v>308760</v>
+      </c>
+      <c r="C122">
+        <v>617514</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123">
+        <v>617517</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124">
+        <v>3000003</v>
+      </c>
+      <c r="C124">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125">
+        <v>6000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126">
+        <v>6000003</v>
+      </c>
+      <c r="C126">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127">
+        <v>12000003</v>
       </c>
     </row>
   </sheetData>
